--- a/src/data/dashboard_data.xlsx
+++ b/src/data/dashboard_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\My projects\CRRC\SIDA dashboard\dashboard\sm_monitoring\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D5580-7F6D-4164-A9D8-00C84F56196F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D232CD-353D-4C84-BE6D-6195BA22F71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="ნარატივები" sheetId="2" r:id="rId2"/>
     <sheet name="აქტორები" sheetId="3" r:id="rId3"/>
     <sheet name="თემა" sheetId="4" r:id="rId4"/>
+    <sheet name="მოვლენები" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$W$116</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="885">
   <si>
     <t>#</t>
   </si>
@@ -2480,6 +2481,237 @@
   </si>
   <si>
     <t>actor_text</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>გიორგობა</t>
+  </si>
+  <si>
+    <t>ბარბარობა</t>
+  </si>
+  <si>
+    <t>ახალი წელი</t>
+  </si>
+  <si>
+    <t>შობა</t>
+  </si>
+  <si>
+    <t>Keyword. საკვანძო სიტყვები ტექსტიდან, რაც ანტი-დასავლურ ნარატივს მიესადაგება (ფორმატი: მხოლოდ მძიმე. მაგალითად: უსამშობლო,ტვინგარეცხილი,მოღალატე სტუდენტობა)</t>
+  </si>
+  <si>
+    <t>ძარცვა</t>
+  </si>
+  <si>
+    <t>ველური ნაცები</t>
+  </si>
+  <si>
+    <t>აგრესიული დაჯგუფება, რადიკალური დაჯგუფება</t>
+  </si>
+  <si>
+    <t>რადიკალური დაჯგუფება</t>
+  </si>
+  <si>
+    <t>რადიკალების აქცია</t>
+  </si>
+  <si>
+    <t>რადიკალური ჯგუფების კოორდინირება</t>
+  </si>
+  <si>
+    <t>მტრების პროპაგანდა,სამოქალაქო ომი,ძმათა სისხლისღვრა</t>
+  </si>
+  <si>
+    <t>აგრესიული რადიკალები,დაქირავებული რუსები და უკრაინელები</t>
+  </si>
+  <si>
+    <t>რუსკი ხოშტარია,ოკუპანტის ენა</t>
+  </si>
+  <si>
+    <t>წარსულში ქურდობისთვის ნასამართლევი,ცეცხლის წაკიდებით ნივთის დაზიანება,ნარკოტიკული საშუალების უკანონო შეძენა-შენახვისთვის ნასამართლევი</t>
+  </si>
+  <si>
+    <t>შიდა მტრები,ძმათა სისხლისღვრა,უცხო ქვეყნის დავალება,უცხო ქვეყნის დაფინანსება</t>
+  </si>
+  <si>
+    <t>ძმათა სისხლისღვრა,ქვეყნის მტრები</t>
+  </si>
+  <si>
+    <t>დააზიანე შენი სამშობლო</t>
+  </si>
+  <si>
+    <t>რადიკალური ექსტრემისტები</t>
+  </si>
+  <si>
+    <t>ამდენი ბავშვი, არასრულწლოვნები</t>
+  </si>
+  <si>
+    <t>ოპოზიციის არამშვიდობიანი აქცია,დაშავებული პოლიციელი</t>
+  </si>
+  <si>
+    <t>ევროკავშირის შანტაჟი,ხელოვნური ინსტრუმენტი,საზოგადოების პოლარიზაცია,რადიკალიზმის გაღვივება</t>
+  </si>
+  <si>
+    <t>თავდასხმა პოლიციელებზე,მერიის ქონების დაზიანება</t>
+  </si>
+  <si>
+    <t>ბარიკადები</t>
+  </si>
+  <si>
+    <t>სასტიკი ძალადობა,დასავლელი სპონსორები,რადიკალური ოპოზიცია,მოძალადეების შეკრება</t>
+  </si>
+  <si>
+    <t>აგენტურა, მეხუთე კოლონა</t>
+  </si>
+  <si>
+    <t>კონფრონტაცია,შეურაცხყოფა</t>
+  </si>
+  <si>
+    <t>დაამტვრიეს,ქვები ისროლეს</t>
+  </si>
+  <si>
+    <t>ძალადობრივი ქმედებები,"მშვიდობიანი"</t>
+  </si>
+  <si>
+    <t>უცხოელი ინსტრუქტორები</t>
+  </si>
+  <si>
+    <t>მოლოტობის კოქტეილი</t>
+  </si>
+  <si>
+    <t>"მშვიდობიანი"</t>
+  </si>
+  <si>
+    <t>ცეცხლი წაუკიდეს</t>
+  </si>
+  <si>
+    <t>უხეში შანტაჟი</t>
+  </si>
+  <si>
+    <t>ძალადობრივი ქმედებები</t>
+  </si>
+  <si>
+    <t>გვამი გვჭირდება,"მკვლელი სახელმწიფო"</t>
+  </si>
+  <si>
+    <t>გარე დაფინანსება</t>
+  </si>
+  <si>
+    <t>გვამი გვჭირდება,</t>
+  </si>
+  <si>
+    <t>არეულობის მონაწილე</t>
+  </si>
+  <si>
+    <t>სისხლისმსმელი, მაიდანი, მეორე ფრონტი</t>
+  </si>
+  <si>
+    <t>ურჯულოები</t>
+  </si>
+  <si>
+    <t>სამშობლოს მტრები</t>
+  </si>
+  <si>
+    <t>რევოლუციას მოწყურებული ჯენზი, მოღალატე, არაკაცი, სისხლი სწყურია ბიჭს</t>
+  </si>
+  <si>
+    <t>მოღალატე</t>
+  </si>
+  <si>
+    <t>შანტაჟი</t>
+  </si>
+  <si>
+    <t>სამშობლოზე სროლა</t>
+  </si>
+  <si>
+    <t>ბლადიმირ დოუნდობელი</t>
+  </si>
+  <si>
+    <t>სატანის თაყვანისმცემლები, სულს ყიდიან</t>
+  </si>
+  <si>
+    <t>"პროდასავლელი" ტერორისტები, რევოლუციურ-საბოტაჟური მასკარადი</t>
+  </si>
+  <si>
+    <t>განსხვავებული აზრის დევნა, ეკლესიას აგინებენ, პატრიარქს აგინებენ, უნამუსოები, ქვეყნის გამყიდველები</t>
+  </si>
+  <si>
+    <t>მანქურთები</t>
+  </si>
+  <si>
+    <t>გრინჩები</t>
+  </si>
+  <si>
+    <t>დასავლეთის მონები, აგრესიული მომიტინგეები</t>
+  </si>
+  <si>
+    <t>პატიმრების წამება,მკვლელობა, ცემა, ექსტრადირება</t>
+  </si>
+  <si>
+    <t>ცენზურა</t>
+  </si>
+  <si>
+    <t>ნაცმაიდანი,მოვერევით,არ დავუშვებთ,არ დავუშვათ,ნაცები,</t>
+  </si>
+  <si>
+    <t>გახსენით-ვაწერთ!,შანტაჟის გარეშე,ღირსებით</t>
+  </si>
+  <si>
+    <t>არერულობა, რევოლუცია, ბულინგი,</t>
+  </si>
+  <si>
+    <t>საქართველოს ანჯღრევენ,მიზანმიმართულად ანჯღრევენ,შიდა და გარე მტრები,პირადი ინტერესები,უსამშობლო ადამიანები,ქვეყნის მტრობა,დაქუცმაცება,ქვეყანა იშლება,ნადგურდება,საშინელების ორგანიზატორები,დამღუპველი მარშები,</t>
+  </si>
+  <si>
+    <t>გვებრძვიან,ქართულ სიტყვას ახშობენ,</t>
+  </si>
+  <si>
+    <t>ქართული ოცნების დამსახურებაა,ნაცების ორგანიზებული აქცია,არ არსებობდა თავისუფალი მედია,თქვენ თანატოლებს აუპატიურებდნენ,ორი ვარიანტი,მათ ორგანიზებულ აქციაზე დგახარ,შვილო,ვერ დავუშვებთ მათ მობრუნმებას,წარმოდგენა არ გაქვს,თავისუფლებას არავინ გართმევთ,ცუდად გიყენებ,გატყუებენ</t>
+  </si>
+  <si>
+    <t>არ დავუშვებთ,</t>
+  </si>
+  <si>
+    <t>ამათი გადატრიალებული, არ გაიშვას,ამათ აქციაზე,როგორ დადიხართ,</t>
+  </si>
+  <si>
+    <t>გასამართლება,ნაციონალური მოძრაობა</t>
+  </si>
+  <si>
+    <t>ნაცებო,მიიღო საკადრისი,დარეკა პოლიციაში,ფურცელი ვერ გააგდებინეს</t>
+  </si>
+  <si>
+    <t>ვთრთით თქვენი შიშით</t>
+  </si>
+  <si>
+    <t>მიშადან მზიამდე,</t>
+  </si>
+  <si>
+    <t>მუქარა</t>
+  </si>
+  <si>
+    <t>პიროტექნიკა,ხლაპუშკები</t>
+  </si>
+  <si>
+    <t>კრემლის მყისიერი შექება,დასავლეთის ინტეგრაციის გზიდან გადახვევა</t>
+  </si>
+  <si>
+    <t>მეხუთე კოლონა,ევროპის შესაბამისი ბიუროკრატები,რადიკალები და მათი უცხოელი მფარველები, უკრაინად გადაქცევა</t>
+  </si>
+  <si>
+    <t>საქართველოს უკრაინიზაცია,საზოგადოების გახლეჩა</t>
+  </si>
+  <si>
+    <t>დივერსიული ჯგუფები,ომია</t>
+  </si>
+  <si>
+    <t>აგრესიული მომიტინგები</t>
+  </si>
+  <si>
+    <t>ურტყავთ!?</t>
   </si>
 </sst>
 </file>
@@ -3080,14 +3312,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="11" width="11.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3157,8 +3389,11 @@
       <c r="W1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X1" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3208,8 +3443,9 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3251,8 +3487,9 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3296,8 +3533,11 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X4" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3351,8 +3591,11 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X5" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3402,8 +3645,11 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X6" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3453,8 +3699,11 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X7" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3504,8 +3753,9 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3555,8 +3805,9 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3612,8 +3863,11 @@
       <c r="W10" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X10" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3665,8 +3919,11 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X11" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3722,8 +3979,11 @@
       <c r="W12" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X12" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3783,8 +4043,11 @@
       <c r="W13" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X13" s="8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3834,8 +4097,11 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="8"/>
-    </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X14" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3895,8 +4161,11 @@
       <c r="W15" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X15" s="8" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3944,8 +4213,11 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="8"/>
-    </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X16" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3995,8 +4267,11 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="8"/>
-    </row>
-    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X17" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4040,8 +4315,11 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="8"/>
-    </row>
-    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X18" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4089,8 +4367,11 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="8"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X19" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4142,8 +4423,9 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="8"/>
-    </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4193,8 +4475,9 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="8"/>
-    </row>
-    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4238,8 +4521,9 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="8"/>
-    </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4299,8 +4583,11 @@
       <c r="W23" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X23" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4356,8 +4643,11 @@
       <c r="W24" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X24" s="13" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4407,8 +4697,11 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X25" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4466,8 +4759,11 @@
       <c r="W26" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X26" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4517,8 +4813,11 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="8"/>
-    </row>
-    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X27" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4580,8 +4879,11 @@
       <c r="W28" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X28" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4637,8 +4939,11 @@
       <c r="W29" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X29" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4688,8 +4993,11 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="8"/>
-    </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X30" s="8" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4739,8 +5047,9 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="8"/>
-    </row>
-    <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4790,8 +5099,11 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="8"/>
-    </row>
-    <row r="33" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X32" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4835,8 +5147,11 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="8"/>
-    </row>
-    <row r="34" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X33" s="8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4888,8 +5203,11 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="8"/>
-    </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X34" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4939,8 +5257,11 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="8"/>
-    </row>
-    <row r="36" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X35" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4984,8 +5305,11 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="8"/>
-    </row>
-    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X36" s="8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5029,8 +5353,9 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="8"/>
-    </row>
-    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X37" s="8"/>
+    </row>
+    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5074,8 +5399,9 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="8"/>
-    </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X38" s="8"/>
+    </row>
+    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -5125,8 +5451,11 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="8"/>
-    </row>
-    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X39" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -5170,8 +5499,11 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="8"/>
-    </row>
-    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X40" s="8" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -5231,8 +5563,11 @@
       <c r="W41" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X41" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -5282,8 +5617,11 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="8"/>
-    </row>
-    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X42" s="8" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -5339,8 +5677,11 @@
       <c r="W43" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X43" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -5390,8 +5731,11 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="8"/>
-    </row>
-    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X44" s="8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -5447,8 +5791,11 @@
       <c r="W45" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X45" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -5498,8 +5845,11 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="8"/>
-    </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X46" s="8" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -5555,8 +5905,9 @@
       <c r="W47" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X47" s="13"/>
+    </row>
+    <row r="48" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -5606,8 +5957,11 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="8"/>
-    </row>
-    <row r="49" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X48" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -5659,8 +6013,11 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="8"/>
-    </row>
-    <row r="50" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X49" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -5706,8 +6063,9 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="8"/>
-    </row>
-    <row r="51" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X50" s="8"/>
+    </row>
+    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -5753,8 +6111,9 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="8"/>
-    </row>
-    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X51" s="8"/>
+    </row>
+    <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -5802,8 +6161,11 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="8"/>
-    </row>
-    <row r="53" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X52" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -5857,8 +6219,11 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="8"/>
-    </row>
-    <row r="54" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X53" s="8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -5908,8 +6273,11 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="8"/>
-    </row>
-    <row r="55" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X54" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -5963,8 +6331,9 @@
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="8"/>
-    </row>
-    <row r="56" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X55" s="8"/>
+    </row>
+    <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -6016,8 +6385,11 @@
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="8"/>
-    </row>
-    <row r="57" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X56" s="8" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -6073,8 +6445,9 @@
       <c r="W57" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X57" s="8"/>
+    </row>
+    <row r="58" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -6132,8 +6505,9 @@
       <c r="W58" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X58" s="8"/>
+    </row>
+    <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -6197,8 +6571,11 @@
       <c r="W59" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X59" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -6260,8 +6637,11 @@
       <c r="W60" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X60" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -6313,8 +6693,11 @@
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="8"/>
-    </row>
-    <row r="62" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X61" s="8" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -6366,8 +6749,9 @@
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="8"/>
-    </row>
-    <row r="63" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X62" s="8"/>
+    </row>
+    <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -6427,8 +6811,11 @@
       <c r="W63" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X63" s="8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -6494,8 +6881,11 @@
       <c r="W64" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X64" s="8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -6539,8 +6929,11 @@
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="8"/>
-    </row>
-    <row r="66" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X65" s="8" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -6608,8 +7001,11 @@
       <c r="W66" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X66" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -6671,8 +7067,11 @@
       <c r="W67" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X67" s="8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -6728,8 +7127,11 @@
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="8"/>
-    </row>
-    <row r="69" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X68" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -6793,8 +7195,11 @@
       <c r="W69" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X69" s="8" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -6858,8 +7263,11 @@
       <c r="W70" s="20" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X70" s="20" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -6909,8 +7317,11 @@
       <c r="U71" s="24"/>
       <c r="V71" s="24"/>
       <c r="W71" s="24"/>
-    </row>
-    <row r="72" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X71" s="24" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -6964,8 +7375,11 @@
       <c r="U72" s="24"/>
       <c r="V72" s="24"/>
       <c r="W72" s="24"/>
-    </row>
-    <row r="73" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X72" s="24" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -7031,8 +7445,11 @@
       <c r="W73" s="24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X73" s="24" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -7066,8 +7483,9 @@
       <c r="U74" s="24"/>
       <c r="V74" s="24"/>
       <c r="W74" s="24"/>
-    </row>
-    <row r="75" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X74" s="24"/>
+    </row>
+    <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -7111,8 +7529,11 @@
       <c r="U75" s="24"/>
       <c r="V75" s="24"/>
       <c r="W75" s="24"/>
-    </row>
-    <row r="76" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X75" s="24" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -7176,8 +7597,11 @@
       <c r="W76" s="24" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X76" s="24" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -7223,8 +7647,9 @@
       <c r="U77" s="24"/>
       <c r="V77" s="24"/>
       <c r="W77" s="24"/>
-    </row>
-    <row r="78" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X77" s="24"/>
+    </row>
+    <row r="78" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -7272,8 +7697,11 @@
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
       <c r="W78" s="24"/>
-    </row>
-    <row r="79" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X78" s="24" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -7307,8 +7735,9 @@
       <c r="U79" s="24"/>
       <c r="V79" s="24"/>
       <c r="W79" s="24"/>
-    </row>
-    <row r="80" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X79" s="24"/>
+    </row>
+    <row r="80" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -7342,6 +7771,7 @@
       <c r="U80" s="24"/>
       <c r="V80" s="24"/>
       <c r="W80" s="24"/>
+      <c r="X80" s="24"/>
     </row>
     <row r="81" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
@@ -7395,6 +7825,9 @@
       <c r="U81" s="24"/>
       <c r="V81" s="24"/>
       <c r="W81" s="24"/>
+      <c r="X81" s="24" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="82" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
@@ -7440,6 +7873,7 @@
       <c r="U82" s="24"/>
       <c r="V82" s="24"/>
       <c r="W82" s="24"/>
+      <c r="X82" s="24"/>
     </row>
     <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="5">
@@ -7485,6 +7919,7 @@
       <c r="U83" s="24"/>
       <c r="V83" s="24"/>
       <c r="W83" s="24"/>
+      <c r="X83" s="24"/>
     </row>
     <row r="84" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5">
@@ -7538,6 +7973,7 @@
       <c r="U84" s="24"/>
       <c r="V84" s="24"/>
       <c r="W84" s="24"/>
+      <c r="X84" s="24"/>
     </row>
     <row r="85" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="5">
@@ -7583,6 +8019,9 @@
       <c r="U85" s="24"/>
       <c r="V85" s="24"/>
       <c r="W85" s="24"/>
+      <c r="X85" s="24" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="86" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
@@ -7630,6 +8069,7 @@
       <c r="U86" s="24"/>
       <c r="V86" s="24"/>
       <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
     </row>
     <row r="87" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
@@ -7693,6 +8133,7 @@
       <c r="W87" s="24" t="s">
         <v>191</v>
       </c>
+      <c r="X87" s="24"/>
     </row>
     <row r="88" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
@@ -7738,6 +8179,7 @@
       <c r="U88" s="24"/>
       <c r="V88" s="24"/>
       <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
     </row>
     <row r="89" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
@@ -7802,6 +8244,9 @@
       </c>
       <c r="W89" s="24" t="s">
         <v>195</v>
+      </c>
+      <c r="X89" s="24" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -7838,6 +8283,7 @@
       <c r="U90" s="24"/>
       <c r="V90" s="24"/>
       <c r="W90" s="24"/>
+      <c r="X90" s="24"/>
     </row>
     <row r="91" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
@@ -7885,6 +8331,9 @@
       <c r="U91" s="24"/>
       <c r="V91" s="24"/>
       <c r="W91" s="24"/>
+      <c r="X91" s="24" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="92" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
@@ -7940,6 +8389,9 @@
       <c r="U92" s="24"/>
       <c r="V92" s="24"/>
       <c r="W92" s="24"/>
+      <c r="X92" s="24" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="93" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
@@ -7975,6 +8427,7 @@
       <c r="U93" s="24"/>
       <c r="V93" s="24"/>
       <c r="W93" s="24"/>
+      <c r="X93" s="24"/>
     </row>
     <row r="94" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5">
@@ -8036,7 +8489,9 @@
       <c r="W94" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="X94" s="6"/>
+      <c r="X94" s="13" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="95" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5">
@@ -8084,7 +8539,7 @@
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="8"/>
-      <c r="X95" s="6"/>
+      <c r="X95" s="8"/>
     </row>
     <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5">
@@ -8130,7 +8585,9 @@
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="8"/>
-      <c r="X96" s="6"/>
+      <c r="X96" s="8" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="97" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5">
@@ -8244,7 +8701,7 @@
       <c r="W98" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="X98" s="6"/>
+      <c r="X98" s="8"/>
     </row>
     <row r="99" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5">
@@ -8298,7 +8755,7 @@
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="8"/>
-      <c r="X99" s="6"/>
+      <c r="X99" s="8"/>
     </row>
     <row r="100" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5">
@@ -8344,7 +8801,7 @@
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
       <c r="W100" s="8"/>
-      <c r="X100" s="6"/>
+      <c r="X100" s="8"/>
     </row>
     <row r="101" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
@@ -8398,7 +8855,7 @@
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="8"/>
-      <c r="X101" s="6"/>
+      <c r="X101" s="8"/>
     </row>
     <row r="102" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
@@ -8444,7 +8901,7 @@
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
       <c r="W102" s="8"/>
-      <c r="X102" s="6"/>
+      <c r="X102" s="8"/>
     </row>
     <row r="103" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
@@ -8504,7 +8961,7 @@
       <c r="W103" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="X103" s="6"/>
+      <c r="X103" s="8"/>
     </row>
     <row r="104" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
@@ -8556,7 +9013,9 @@
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
       <c r="W104" s="8"/>
-      <c r="X104" s="6"/>
+      <c r="X104" s="8" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="105" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
@@ -8608,7 +9067,7 @@
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
       <c r="W105" s="8"/>
-      <c r="X105" s="6"/>
+      <c r="X105" s="8"/>
     </row>
     <row r="106" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
@@ -8670,7 +9129,7 @@
       <c r="W106" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="X106" s="6"/>
+      <c r="X106" s="8"/>
     </row>
     <row r="107" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
@@ -8722,7 +9181,9 @@
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
       <c r="W107" s="8"/>
-      <c r="X107" s="6"/>
+      <c r="X107" s="8" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="108" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
@@ -8784,7 +9245,9 @@
       <c r="W108" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="X108" s="6"/>
+      <c r="X108" s="8" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="109" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
@@ -8836,7 +9299,7 @@
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
       <c r="W109" s="8"/>
-      <c r="X109" s="6"/>
+      <c r="X109" s="8"/>
     </row>
     <row r="110" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
@@ -8888,7 +9351,9 @@
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
       <c r="W110" s="8"/>
-      <c r="X110" s="6"/>
+      <c r="X110" s="8" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="111" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
@@ -8934,7 +9399,7 @@
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
       <c r="W111" s="8"/>
-      <c r="X111" s="6"/>
+      <c r="X111" s="8"/>
     </row>
     <row r="112" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
@@ -8980,7 +9445,7 @@
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
       <c r="W112" s="8"/>
-      <c r="X112" s="6"/>
+      <c r="X112" s="8"/>
     </row>
     <row r="113" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5">
@@ -9030,7 +9495,9 @@
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
       <c r="W113" s="8"/>
-      <c r="X113" s="6"/>
+      <c r="X113" s="8" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="114" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="5">
@@ -9076,7 +9543,7 @@
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
       <c r="W114" s="8"/>
-      <c r="X114" s="6"/>
+      <c r="X114" s="8"/>
     </row>
     <row r="115" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5">
@@ -9122,7 +9589,9 @@
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
       <c r="W115" s="8"/>
-      <c r="X115" s="6"/>
+      <c r="X115" s="8" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="116" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5">
@@ -9168,7 +9637,9 @@
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
       <c r="W116" s="8"/>
-      <c r="X116" s="6"/>
+      <c r="X116" s="8" t="s">
+        <v>884</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9192,9 +9663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D178334C-5EFE-4F48-9EA8-7AA58E735530}">
   <dimension ref="A1:B264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13257,8 +13726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF93574E-3500-41B6-8E4D-7ABAD002D051}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13690,4 +14159,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B47F2D2-8379-4407-B6AE-B9221BBD032B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="31">
+        <v>45619</v>
+      </c>
+      <c r="B2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31">
+        <v>45643</v>
+      </c>
+      <c r="B3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="31">
+        <v>45658</v>
+      </c>
+      <c r="B4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="31">
+        <v>45664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/data/dashboard_data.xlsx
+++ b/src/data/dashboard_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\My projects\CRRC\SIDA dashboard\dashboard\sm_monitoring\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D232CD-353D-4C84-BE6D-6195BA22F71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAE196E-831C-4BD5-8A3E-E314054A7D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1444">
   <si>
     <t>#</t>
   </si>
@@ -2712,6 +2712,1683 @@
   </si>
   <si>
     <t>ურტყავთ!?</t>
+  </si>
+  <si>
+    <t>narrative_text_en</t>
+  </si>
+  <si>
+    <t>actor_text_en</t>
+  </si>
+  <si>
+    <t>topic_text_en</t>
+  </si>
+  <si>
+    <t>description_en</t>
+  </si>
+  <si>
+    <t>European ambassadors are not democratic</t>
+  </si>
+  <si>
+    <t>Protesters are sick/immoral</t>
+  </si>
+  <si>
+    <t>Protests are managed and ill-considered (by the participants)</t>
+  </si>
+  <si>
+    <t>There is no evidence of election fraud</t>
+  </si>
+  <si>
+    <t>The EU/Council of Europe is treating Georgia unfairly</t>
+  </si>
+  <si>
+    <t>Protests are developing in the Ukraine/Maidan scenario and will lead to war</t>
+  </si>
+  <si>
+    <t>Protesters/opposition are violent/criminals</t>
+  </si>
+  <si>
+    <t>Protesters are Nazis</t>
+  </si>
+  <si>
+    <t>Elections were held under conditions of free agitation</t>
+  </si>
+  <si>
+    <t>Part of the special forces does not consider Salome Zurabishvili as their president</t>
+  </si>
+  <si>
+    <t>Foreign citizens also participate in the protests</t>
+  </si>
+  <si>
+    <t>Protesters are lawless/infidels</t>
+  </si>
+  <si>
+    <t>The West ignores Georgia's true values ​​(traditions)</t>
+  </si>
+  <si>
+    <t>Partnership with the West strengthens Georgia's security, development and democratic future</t>
+  </si>
+  <si>
+    <t>Protesters are punishable</t>
+  </si>
+  <si>
+    <t>A good presidency does not need education</t>
+  </si>
+  <si>
+    <t>Georgia's enemies want to divide the country and cause civil strife</t>
+  </si>
+  <si>
+    <t>Protesters are enemies of the homeland</t>
+  </si>
+  <si>
+    <t>The victory of the opposition is tantamount to the destruction of the country</t>
+  </si>
+  <si>
+    <t>Georgia's European integration is a constitutional obligation</t>
+  </si>
+  <si>
+    <t>Stopping Georgia's Western integration is against constitutional obligations and national interests.</t>
+  </si>
+  <si>
+    <t>Protests are being organized by external forces</t>
+  </si>
+  <si>
+    <t>Protest marches are destructive/threaten the country</t>
+  </si>
+  <si>
+    <t>Protest organizers have foreign patrons</t>
+  </si>
+  <si>
+    <t>Protest leaders/organizers are using protest participants, if something happens they will run away and leave the people</t>
+  </si>
+  <si>
+    <t>Protest leaders/organizers are themselves in league with Russia</t>
+  </si>
+  <si>
+    <t>The European integration process is being used by external forces to divide and destabilize the country</t>
+  </si>
+  <si>
+    <t>Protest organizers are involving/using children (minors) in protests</t>
+  </si>
+  <si>
+    <t>Ukraine is losing the war/cannot win the war</t>
+  </si>
+  <si>
+    <t>Zelensky is to blame for the Russia-Ukraine war and is a bad president</t>
+  </si>
+  <si>
+    <t>A fighter/fighters in Ukraine are calling on the opposition and protest participants to violence, destabilization</t>
+  </si>
+  <si>
+    <t>Protest organizers are acting with foreign funding and instructions</t>
+  </si>
+  <si>
+    <t>Protesters are trying to suppress Georgian speech and truth by attacking Facebook pages and groups.</t>
+  </si>
+  <si>
+    <t>Europe/EU/West is blackmailing the Georgian government</t>
+  </si>
+  <si>
+    <t>Towards Europe with peace, dignity, unity</t>
+  </si>
+  <si>
+    <t>The police could have prevented the coup attempt in Georgia.</t>
+  </si>
+  <si>
+    <t>The protest is not peaceful, they are attacking state institutions, law enforcement officers/police, using pyrotechnics/Molotov cocktails</t>
+  </si>
+  <si>
+    <t>The EU/West itself does not want Georgia to join the EU, despite the readiness of the Georgian government</t>
+  </si>
+  <si>
+    <t>Bidzina Ivanishvili is a charitable and decent person</t>
+  </si>
+  <si>
+    <t>Opposition media/critical media are fighting the church</t>
+  </si>
+  <si>
+    <t>The West is trying to turn Georgia into an instrument of confrontation with Russia.</t>
+  </si>
+  <si>
+    <t>Protesters are neo-Bolsheviks/communists, using their methods</t>
+  </si>
+  <si>
+    <t>Protesters are fighting a different opinion</t>
+  </si>
+  <si>
+    <t>Protesters are stateless</t>
+  </si>
+  <si>
+    <t>Public institutions are undergoing self-cleansing</t>
+  </si>
+  <si>
+    <t>Discrediting and vilifying opposition media</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is trying to organize a Maidan in Georgia on the instructions of the West</t>
+  </si>
+  <si>
+    <t>The National Movement and its supporters are criminals.</t>
+  </si>
+  <si>
+    <t>Opposition/government officials demand sanctions</t>
+  </si>
+  <si>
+    <t>The US is treating Georgia unfairly</t>
+  </si>
+  <si>
+    <t>The opposition and protesters want to steal the New Year from children and the entire country</t>
+  </si>
+  <si>
+    <t>The protesters and organizers want chaos and war in the country</t>
+  </si>
+  <si>
+    <t>The post of Public Defender is a post of slaves of the liberal West</t>
+  </si>
+  <si>
+    <t>The police serve Georgia, the opposition serves the EU</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili calls on Georgia's partners to put pressure on the ruling party.</t>
+  </si>
+  <si>
+    <t>Suspending the visa-free regime with Europe is practically impossible</t>
+  </si>
+  <si>
+    <t>Hungary is a friend of Georgia</t>
+  </si>
+  <si>
+    <t>There is no real independence and freedom of speech in Europe</t>
+  </si>
+  <si>
+    <t>The West recognizes the Dream government/the government has no problem with recognition</t>
+  </si>
+  <si>
+    <t>The participants of the action are weak/ridiculous</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is going to flee</t>
+  </si>
+  <si>
+    <t>Nobody takes the Ukrainian president seriously/they make fun of him</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is being governed from the West</t>
+  </si>
+  <si>
+    <t>MEPs are friends of the Nazis/Europe supports the Nazis</t>
+  </si>
+  <si>
+    <t>MEPs directly support the Georgian Maidan</t>
+  </si>
+  <si>
+    <t>The opposition is actually a national movement (collective Nazi movement)</t>
+  </si>
+  <si>
+    <t>Everyone sacrificed Ukraine (here mainly the West is meant/USA, Europe)</t>
+  </si>
+  <si>
+    <t>The Georgian Dream, its members, and not the opposition, serve the interests of the Georgian people/homeland/country</t>
+  </si>
+  <si>
+    <t>Businesses with an opposition attitude are ridiculous, inadequate/morally They are degraded</t>
+  </si>
+  <si>
+    <t>The opposition is a puppet of the West and a hostile force</t>
+  </si>
+  <si>
+    <t>The European Union is not doing enough to prevent Georgia from deviating from the European path</t>
+  </si>
+  <si>
+    <t>Europeans/Europeans</t>
+  </si>
+  <si>
+    <t>Ukraine is inciting provocations against Georgia</t>
+  </si>
+  <si>
+    <t>There are thousands of Western-funded NGOs in Georgia that are artificially creating tension.</t>
+  </si>
+  <si>
+    <t>French President Emmanuel Macron is behind the ongoing processes in Georgia</t>
+  </si>
+  <si>
+    <t>Police also disperse protests in Western countries when necessary</t>
+  </si>
+  <si>
+    <t>Few people attend protests/protests do not have public support</t>
+  </si>
+  <si>
+    <t>The West cooperates with terrorists</t>
+  </si>
+  <si>
+    <t>The positions expressed by the new US administration coincide with the visions of the Georgian government</t>
+  </si>
+  <si>
+    <t>Western funds finance anti-state activities in Georgia</t>
+  </si>
+  <si>
+    <t>N. When the movement was in power, things were worse than now (violence against people, raids...)</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is behaving illogically, not recognizing the government, and suing her</t>
+  </si>
+  <si>
+    <t>Opposition-minded media is calling on people to revolt</t>
+  </si>
+  <si>
+    <t>Millions of dollars have been stolen/squandered from USAID</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili deserved to be thrown eggs</t>
+  </si>
+  <si>
+    <t>Georgia and Azerbaijan must stand together against the West</t>
+  </si>
+  <si>
+    <t>Participants/organizers of the action must express their protest within the framework established by law</t>
+  </si>
+  <si>
+    <t>Biden and his administration themselves acted unjustly, while asking the world for morality</t>
+  </si>
+  <si>
+    <t>Opposition media should be banned from spreading fake news</t>
+  </si>
+  <si>
+    <t>National Movement They should be tried for their past crimes</t>
+  </si>
+  <si>
+    <t>The opposition/National Movement is immoral and anti-patriotic</t>
+  </si>
+  <si>
+    <t>The opposition media is not happy about the success of Georgia/Georgians (in sports)</t>
+  </si>
+  <si>
+    <t>The US (West) is tightening laws on LGBTQ+ or adopting laws restricting LGBT propaganda</t>
+  </si>
+  <si>
+    <t>The opposition is against Trump, supports Biden.</t>
+  </si>
+  <si>
+    <t>China is a partner of Georgia</t>
+  </si>
+  <si>
+    <t>The European Parliament is corrupt</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is not the legitimate president of Georgia</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili does not deserve Georgian citizenship</t>
+  </si>
+  <si>
+    <t>Macron recognizes Ivanishvili's legitimacy</t>
+  </si>
+  <si>
+    <t>Ivanishvili is ready to cooperate with European countries</t>
+  </si>
+  <si>
+    <t>Trump administration/Republican Party supports pro-government groups</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is not a significant political figure in the West</t>
+  </si>
+  <si>
+    <t>Masks should be banned in the city</t>
+  </si>
+  <si>
+    <t>The opposition is trying to discredit the police institution</t>
+  </si>
+  <si>
+    <t>The United Arab Emirates is a strong economic partner of Georgia</t>
+  </si>
+  <si>
+    <t>USAID is undermining the policies of the new US government in all countries where it operates</t>
+  </si>
+  <si>
+    <t>The non-governmental sector wants to come to power</t>
+  </si>
+  <si>
+    <t>Western media is biased (one-sided) in reporting on the ongoing processes in Georgia</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili and Mikheil Saakashvili are partners/Salome Zurabishvili is a Nazi</t>
+  </si>
+  <si>
+    <t>Protests serve narrow political interests and are a dangerous game</t>
+  </si>
+  <si>
+    <t>The Georgian Dream and Dream supporters are supported by American conservative forces directly or indirectly (they have a corrupt policy)</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili still considers herself the incumbent president</t>
+  </si>
+  <si>
+    <t>The opposition has no support in the West/USA (including among conservatives)</t>
+  </si>
+  <si>
+    <t>The Church (Patriarchy) supports the Georgian Dream or groups related to it</t>
+  </si>
+  <si>
+    <t>The East is Georgia's partner (significantly with the West)</t>
+  </si>
+  <si>
+    <t>The opposition threatens retaliation</t>
+  </si>
+  <si>
+    <t>The purge in the public sector is a positive development</t>
+  </si>
+  <si>
+    <t>Mikheil Kavelashvili is a president who carries national identity and faith</t>
+  </si>
+  <si>
+    <t>The opposition is ridiculous and inadequate</t>
+  </si>
+  <si>
+    <t>The opposition intends to negotiate with Russia</t>
+  </si>
+  <si>
+    <t>Despite internal and external factors, Georgia is experiencing economic development</t>
+  </si>
+  <si>
+    <t>The new US administration is fighting the DEEP STATE</t>
+  </si>
+  <si>
+    <t>Only the most depraved nats like him now believe in Zelensky's success</t>
+  </si>
+  <si>
+    <t>It is necessary to normalize Georgia-Russia relations</t>
+  </si>
+  <si>
+    <t>Georgia does not need Europe or Russia</t>
+  </si>
+  <si>
+    <t>The anti-Maidan group is an alternative to harmful NGOs</t>
+  </si>
+  <si>
+    <t>Facebook's censorship policy must be changed</t>
+  </si>
+  <si>
+    <t>The organizers of the action call on low-income citizens to go on strike, although they will be left without a source of livelihood</t>
+  </si>
+  <si>
+    <t>Lithuania interferes in Georgia's internal affairs through sanctions</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili herself considers him the only legitimate ruler and does not recognize the government</t>
+  </si>
+  <si>
+    <t>The European Union is not democratic</t>
+  </si>
+  <si>
+    <t>The European Union does not respect the choice of the population of sovereign countries</t>
+  </si>
+  <si>
+    <t>Christian identity is more important for Georgia than EU membership</t>
+  </si>
+  <si>
+    <t>The shutdown of opposition TV channels is a positive development</t>
+  </si>
+  <si>
+    <t>Representatives of the opposition media are national propagandists</t>
+  </si>
+  <si>
+    <t>Athletes who oppose the government are Nazis</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is a traitor to the homeland and a traitor</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili is acting against the national interests of Georgia</t>
+  </si>
+  <si>
+    <t>The opposition is sacrificing the values ​​of the country under the guise of pseudo-liberal values</t>
+  </si>
+  <si>
+    <t>The opposition gives tasks and money to protesters</t>
+  </si>
+  <si>
+    <t>Protest participants need sacrifices to achieve success, and even more. There are protesters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The police are heroes and protect state institutions and the state from the criminal participants of the protest action</t>
+  </si>
+  <si>
+    <t>Europeans call throwing stones, "Molotov cocktails", and pyrotechnics at people's peace and peaceful protest.</t>
+  </si>
+  <si>
+    <t>The politicians are corrupt.</t>
+  </si>
+  <si>
+    <t>The West is not a liberal democracy (ie, real Europe is Christian, conservative)</t>
+  </si>
+  <si>
+    <t>USAID funded radical programs of ultra-left activists</t>
+  </si>
+  <si>
+    <t>NED (National Endowment for Democracy) is infiltrated by corruption and fraud</t>
+  </si>
+  <si>
+    <t>The outgoing/liberal political elite in the West is fighting the Dream, while the conservatives who are coming to support and promote it</t>
+  </si>
+  <si>
+    <t>Russia did not interfere in the Georgian elections/there is no evidence of its interference</t>
+  </si>
+  <si>
+    <t>The opposition does not understand that</t>
+  </si>
+  <si>
+    <t>Javakheti Diaspora Organization calls for Georgia to continue cooperation and deepen relations with Russia</t>
+  </si>
+  <si>
+    <t>The Javakheti Diaspora Organization in Russia supports the Georgian government's policy of not imposing sanctions against Russia.</t>
+  </si>
+  <si>
+    <t>The Javakheti Diaspora Organization in Russia shares the policy of the Georgian government, which has deliberately not raised the issue of the occupied territories.</t>
+  </si>
+  <si>
+    <t>The Georgian government is controlling the situation and relations with the West will be normalized.</t>
+  </si>
+  <si>
+    <t>The US has sanctioned Ivanishvili for actions against democratic institutions and values.</t>
+  </si>
+  <si>
+    <t>The opposition/Zourabichvili has lobbyists in the US/West and no real support</t>
+  </si>
+  <si>
+    <t>The opposition wants a coup and a Maidan.</t>
+  </si>
+  <si>
+    <t>Western foundations are financing instructors who are organizing coups in Eastern Europe</t>
+  </si>
+  <si>
+    <t>The European Union, which itself interferes in the internal affairs of others, calls on others not to interfere in its affairs.</t>
+  </si>
+  <si>
+    <t>Protesters declare Salome Zurabishvili the leader of the revolution</t>
+  </si>
+  <si>
+    <t>It is a lie that the country is changing its foreign policy/ Individuals involved in the protests, diplomats, and politicians are deceiving the people that the country is changing its foreign policy</t>
+  </si>
+  <si>
+    <t>The President's Residence Has Turned into an Opposition Headquarters/ Salome Zurabishvili Turned the President's Residence into an Opposition Headquarters</t>
+  </si>
+  <si>
+    <t>European leaders are not democratic</t>
+  </si>
+  <si>
+    <t>European leaders are no longer needed by their own people</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili appointed as opposition leader by the West</t>
+  </si>
+  <si>
+    <t>American money sent to aid the country was lost and wasted in Ukraine</t>
+  </si>
+  <si>
+    <t>Europe is trying to stoke unrest in Georgia</t>
+  </si>
+  <si>
+    <t>The Russian-trained Georgian opposition is worse than Russia itself</t>
+  </si>
+  <si>
+    <t>The West is taking concrete measures against the Georgian government</t>
+  </si>
+  <si>
+    <t>Protesters are fighting culture</t>
+  </si>
+  <si>
+    <t>Opposition demands Bidzina Ivanishvili's resignation</t>
+  </si>
+  <si>
+    <t>If the UK imposes sanctions on Bidzina Ivanishvili, it will clearly show that the “deep state” has reduced the UK to the level of Ukraine, Lithuania, Estonia, and the European Parliament.</t>
+  </si>
+  <si>
+    <t>Bidzina Ivanishvili avoided war</t>
+  </si>
+  <si>
+    <t>Georgia should join Brisk, which is an alternative to the US and Europe, both economically and in terms of value.</t>
+  </si>
+  <si>
+    <t>The US has the wrong foreign policy.</t>
+  </si>
+  <si>
+    <t>Europeans/experts (non-governmental organizations, not representatives of the political sphere) support unrest and war in Georgia</t>
+  </si>
+  <si>
+    <t>The opposition has begun recruiting celebrities.</t>
+  </si>
+  <si>
+    <t>Protesters want revolution</t>
+  </si>
+  <si>
+    <t>Georgian-Russian economic relations are important</t>
+  </si>
+  <si>
+    <t>Pro-government movements/pages/unions have many supporters (the majority)</t>
+  </si>
+  <si>
+    <t>OSCE ready to cooperate with Georgian government</t>
+  </si>
+  <si>
+    <t>Georgia still continues its European integration/movement towards the European Union</t>
+  </si>
+  <si>
+    <t>Protests cause conflict in society and hinder peaceful coexistence</t>
+  </si>
+  <si>
+    <t>The opposition has a slavish attitude towards American politicians</t>
+  </si>
+  <si>
+    <t>The Trump administration is confronting the liberal establishment (media) (hint: they are doing what the Georgian Dream does, i.e. legitimizing)</t>
+  </si>
+  <si>
+    <t>Protest supporters (participants) openly support and incite physical violence</t>
+  </si>
+  <si>
+    <t>The opposition itself admits that the transparency law is American, but still calls it Russian.</t>
+  </si>
+  <si>
+    <t>The European Union does not forgive Georgia's sovereignty and therefore attacks it</t>
+  </si>
+  <si>
+    <t>The US (Trump) recognizes China's power</t>
+  </si>
+  <si>
+    <t>If the Nazis return to power, they will do worse than what has been happening for 9 years.</t>
+  </si>
+  <si>
+    <t>The Nazis threaten people who disagree with their thoughts and positions.</t>
+  </si>
+  <si>
+    <t>The European Union is strong and continues to expand steadily, despite conspiratorial fears about the "deep state."</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili applies double standards regarding the recognition of elections</t>
+  </si>
+  <si>
+    <t>Opposition leaders themselves are in league with Russia</t>
+  </si>
+  <si>
+    <t>The Georgian government pursues a policy of peace.</t>
+  </si>
+  <si>
+    <t>The opposition is funded by the European Union.</t>
+  </si>
+  <si>
+    <t>Hungary abolishes political asylum for criminals from previous government</t>
+  </si>
+  <si>
+    <t>National/Opposition Media Accuses Trump of Spreading Russian Narrative</t>
+  </si>
+  <si>
+    <t>Zelensky considers Trump a victim of Russian propaganda</t>
+  </si>
+  <si>
+    <t>Protesters' rallies anger the population</t>
+  </si>
+  <si>
+    <t>Protest organizers' plan for Maidan failed</t>
+  </si>
+  <si>
+    <t>Western leaders who did not recognize the elections held in Georgia were elected by their own countries.</t>
+  </si>
+  <si>
+    <t>Special forces are ordinary people. They use excessive force against no one for no reason.</t>
+  </si>
+  <si>
+    <t>The Westerners will not achieve their goal here and can move to Europe.</t>
+  </si>
+  <si>
+    <t>The West fears most about Georgia becoming a sovereign state.</t>
+  </si>
+  <si>
+    <t>The West did not even treat its colonies as arrogantly as it treated Georgia.</t>
+  </si>
+  <si>
+    <t>The West knows nothing about Georgia's rich history, culture, and potential.</t>
+  </si>
+  <si>
+    <t>The opposition is using misguided youth to stage a coup d'état.</t>
+  </si>
+  <si>
+    <t>Europe is no longer a strong player, no matter what they say.</t>
+  </si>
+  <si>
+    <t>Nazis need victims to fuel the rally</t>
+  </si>
+  <si>
+    <t>USAID funded projects in various countries that were culturally unacceptable (e.g., related to LGBTQ rights)</t>
+  </si>
+  <si>
+    <t>Europeans are brainwashing Georgian schoolchildren with their own educational programs</t>
+  </si>
+  <si>
+    <t>Chaos has descended in Syria since the fall of Bashar al-Assad</t>
+  </si>
+  <si>
+    <t>Giorgi Gakharia initiated the conflict with Dito Samkharadze</t>
+  </si>
+  <si>
+    <t>Protesters confront their supporters</t>
+  </si>
+  <si>
+    <t>Kavelashvili pardons man arrested for burning EU flag</t>
+  </si>
+  <si>
+    <t>Protesters do not respect national attributes</t>
+  </si>
+  <si>
+    <t>There was no freedom of speech on Facebook and Twitter / Liberals are suppressing freedom of speech</t>
+  </si>
+  <si>
+    <t>After the organizers of the rally were neutralized, a protest charge was unleashed on Rustaveli</t>
+  </si>
+  <si>
+    <t>Bidzina Ivanishvili's critics are worthless people</t>
+  </si>
+  <si>
+    <t>Pro-European protesters are panicking over the end of the liberal agenda</t>
+  </si>
+  <si>
+    <t>Opposition propagandist media (Georgian) are fighting Trump, the Trump administration</t>
+  </si>
+  <si>
+    <t>Halting Trump's financial support is an important step for Georgia's democracy and will help prevent unrest and incitement to revolution in the country.</t>
+  </si>
+  <si>
+    <t>The US wants to deepen relations with China</t>
+  </si>
+  <si>
+    <t>European leaders do not want to end the war in Ukraine</t>
+  </si>
+  <si>
+    <t>The European Union does not accept responsibility for the war in Ukraine</t>
+  </si>
+  <si>
+    <t>European Parliament resolutions have no value for Georgia, do not reflect reality</t>
+  </si>
+  <si>
+    <t>Trump can restore order in Europe</t>
+  </si>
+  <si>
+    <t>European politicians are trying to interfere in the US election against Trump</t>
+  </si>
+  <si>
+    <t>Europe supports/obeys Biden</t>
+  </si>
+  <si>
+    <t>Educating and raising awareness among ethnic minorities living in Georgia about the values and benefits of the European Union is important.</t>
+  </si>
+  <si>
+    <t>The US has lost its old, conservative values.</t>
+  </si>
+  <si>
+    <t>The US sees big (economic) gains from the war in Ukraine</t>
+  </si>
+  <si>
+    <t>NATO is not a guarantor of Georgia's security</t>
+  </si>
+  <si>
+    <t>Georgia's accession to NATO is possible only through the destruction of the state.</t>
+  </si>
+  <si>
+    <t>The West started the war in Ukraine</t>
+  </si>
+  <si>
+    <t>The United States suffered a political collapse in Ukraine</t>
+  </si>
+  <si>
+    <t>Georgia has a political and intellectual elite that sells out</t>
+  </si>
+  <si>
+    <t>Armenia shares the position of the Georgian government</t>
+  </si>
+  <si>
+    <t>Cooperation between Georgia and Armenia should be deepened</t>
+  </si>
+  <si>
+    <t>Some of the protest participants are lying about being beaten.</t>
+  </si>
+  <si>
+    <t>Protests are pouring water on Russia's mill</t>
+  </si>
+  <si>
+    <t>USAID and other funds are trying to disrupt elections in Georgia</t>
+  </si>
+  <si>
+    <t>The West wants to maintain territorial conflicts in Georgia</t>
+  </si>
+  <si>
+    <t>Western foundations finance the most anti-Georgian groups in Abkhazia</t>
+  </si>
+  <si>
+    <t>China wants and supports Georgia's territorial integrity</t>
+  </si>
+  <si>
+    <t>The Public Broadcaster is covering events in a biased manner</t>
+  </si>
+  <si>
+    <t>Public Broadcaster employee fired for supporting protests</t>
+  </si>
+  <si>
+    <t>Georgian opposition does not recognize the legitimacy of the parliamentary elections</t>
+  </si>
+  <si>
+    <t>Great Britain plans sanctions against Bidzina Ivanishvili over Georgia's EU accession and violation of democratic rights</t>
+  </si>
+  <si>
+    <t>Western sanctions are ineffective against Russia</t>
+  </si>
+  <si>
+    <t>The government is initiating legislative changes to counter the influence of external forces that are trying to control the country's governance process.</t>
+  </si>
+  <si>
+    <t>Meta will pay Donald Trump $25 million in compensation for blocking his accounts.</t>
+  </si>
+  <si>
+    <t>With the support of foreign donors, important road projects have been implemented across Georgia.</t>
+  </si>
+  <si>
+    <t>A rally is being held in Tbilisi under the slogan "Georgia, Rise Up!"</t>
+  </si>
+  <si>
+    <t>The opposition itself was/is in favor of union with Russia and is manipulating this issue.</t>
+  </si>
+  <si>
+    <t>Representatives of the country's cultural sphere - actors and directors - are actively participating in the protest.</t>
+  </si>
+  <si>
+    <t>Government creates agency to replace foreign sources of funding for public organizations with state resources</t>
+  </si>
+  <si>
+    <t>Western grants are being sent to the country to undermine it ideologically, morally, and ethically.</t>
+  </si>
+  <si>
+    <t>The organizers of the protest are immoral people (those who depict the holy king on condoms, those who drink wine and Borjomi)</t>
+  </si>
+  <si>
+    <t>If the National Movement returns, it will take decades to join the European Union</t>
+  </si>
+  <si>
+    <t>Kremlin/Russia ready to begin process of restoring diplomatic relations with Georgia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Vladimir Putin</t>
+  </si>
+  <si>
+    <t>USA/U.S.A./America</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>European Union / Europe</t>
+  </si>
+  <si>
+    <t>Participants in the pro-European protest</t>
+  </si>
+  <si>
+    <t>Xavier Bettel (Minister of Foreign Affairs of Luxembourg)</t>
+  </si>
+  <si>
+    <t>National Movement</t>
+  </si>
+  <si>
+    <t>Special forces / Special forces / Law enforcement officers / Police</t>
+  </si>
+  <si>
+    <t>Opposition</t>
+  </si>
+  <si>
+    <t>Parliament</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Academic community</t>
+  </si>
+  <si>
+    <t>Georgian government/Official Tbilisi/Georgian Dream</t>
+  </si>
+  <si>
+    <t>Strasbourg Court</t>
+  </si>
+  <si>
+    <t>Salome Zurabishvili (President of Georgia)</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Foreign students</t>
+  </si>
+  <si>
+    <t>Tamar Bagrationi (First Lady of Georgia)</t>
+  </si>
+  <si>
+    <t>Public Defender / Levan Ioseliani</t>
+  </si>
+  <si>
+    <t>Vakhtang Gomelauri / Minister of Internal Affairs</t>
+  </si>
+  <si>
+    <t>Nika Gvaramia</t>
+  </si>
+  <si>
+    <t>Abkhazia</t>
+  </si>
+  <si>
+    <t>Samachablo</t>
+  </si>
+  <si>
+    <t>Mikheil Kavelashvili (President of Georgia)</t>
+  </si>
+  <si>
+    <t>Anti-Maidan (or other)/ anti-protest and anti-riot group</t>
+  </si>
+  <si>
+    <t>Irakli Kobakhidze / Prime Minister</t>
+  </si>
+  <si>
+    <t>Judges</t>
+  </si>
+  <si>
+    <t>Elene Khoshtaria</t>
+  </si>
+  <si>
+    <t>Ministry of Internal Affairs</t>
+  </si>
+  <si>
+    <t>Russians / Russian people</t>
+  </si>
+  <si>
+    <t>Ukrainians / Ukrainian people</t>
+  </si>
+  <si>
+    <t>Georgian people</t>
+  </si>
+  <si>
+    <t>Americans / American people</t>
+  </si>
+  <si>
+    <t>Foreigners / Foreign Nationals</t>
+  </si>
+  <si>
+    <t>Politicians/General</t>
+  </si>
+  <si>
+    <t>Businessmen/General</t>
+  </si>
+  <si>
+    <t>Minors/children participating in the campaign</t>
+  </si>
+  <si>
+    <t>Mikheil Saakashvili</t>
+  </si>
+  <si>
+    <t>Volodymyr Zelensky (President of Ukraine)</t>
+  </si>
+  <si>
+    <t>Immigrants</t>
+  </si>
+  <si>
+    <t>European politicians</t>
+  </si>
+  <si>
+    <t>Local agents</t>
+  </si>
+  <si>
+    <t>External forces/patrons</t>
+  </si>
+  <si>
+    <t>Maia Bitadze (Member of Parliament from Dreamland)</t>
+  </si>
+  <si>
+    <t>Giorgi Vashadze</t>
+  </si>
+  <si>
+    <t>Organizers of the rally</t>
+  </si>
+  <si>
+    <t>Dmytro Kuleba (former Minister of Foreign Affairs of Ukraine)</t>
+  </si>
+  <si>
+    <t>Pia Kauma (President of the OSCE Parliamentary Assembly)</t>
+  </si>
+  <si>
+    <t>Pawel Herczynski (EU Ambassador)</t>
+  </si>
+  <si>
+    <t>Channel One / Journalist, Cameraman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nanuka Zhorzholiani</t>
+  </si>
+  <si>
+    <t>Bidzina Ivanishvili</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Božo Kovačević (Croatian expert)</t>
+  </si>
+  <si>
+    <t>Father Shalva Kekelia</t>
+  </si>
+  <si>
+    <t>Opposition media/critical media</t>
+  </si>
+  <si>
+    <t>Ministry of Foreign Affairs</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Bishop Shio</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Shalva Natelashvili</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>Jeffrey Sachs (American professor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Experts</t>
+  </si>
+  <si>
+    <t>Giorgi Gakharia</t>
+  </si>
+  <si>
+    <t>Irakli Gogava (Political Scientist)</t>
+  </si>
+  <si>
+    <t>Shalva Papuashvili (Chairman of the Parliament)</t>
+  </si>
+  <si>
+    <t>Robin Dunnigan (US Ambassador)</t>
+  </si>
+  <si>
+    <t>Mezvrishvili Natia</t>
+  </si>
+  <si>
+    <t>Thomas Froelich (German MEP)</t>
+  </si>
+  <si>
+    <t>Mamuka Mdinaradze (Parliamentary Majority Leader)</t>
+  </si>
+  <si>
+    <t>Irakli Zarkua</t>
+  </si>
+  <si>
+    <t>Viktor Sanikidze</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Zurab Adeishvili (Former Minister of Justice of Georgia)</t>
+  </si>
+  <si>
+    <t>Zygimantas Pavlionis (Vice-Speaker of the Parliament of Lithuania)</t>
+  </si>
+  <si>
+    <t>Maka Bochorishvili (Minister of Foreign Affairs of Georgia)</t>
+  </si>
+  <si>
+    <t>Official Brussels</t>
+  </si>
+  <si>
+    <t>Duta Skhirtladze</t>
+  </si>
+  <si>
+    <t>Rising Sun</t>
+  </si>
+  <si>
+    <t>Dito Samkharadze</t>
+  </si>
+  <si>
+    <t>Embassy of the European Union in Georgia</t>
+  </si>
+  <si>
+    <t>Rasa Yukneviciane</t>
+  </si>
+  <si>
+    <t>Levan Ioseliani (Public Defender)</t>
+  </si>
+  <si>
+    <t>Private companies/businessman/entrepreneur</t>
+  </si>
+  <si>
+    <t>Victoria Nuland / Former US Deputy Secretary of State</t>
+  </si>
+  <si>
+    <t>Donald Tusk (Prime Minister of Poland)</t>
+  </si>
+  <si>
+    <t>Non-governmental organization “Javakhian Diaspora in Russia”</t>
+  </si>
+  <si>
+    <t>Savalan Mirzaev (Member of Parliament)</t>
+  </si>
+  <si>
+    <t>Gia Khukhashvili (Analyst)</t>
+  </si>
+  <si>
+    <t>Tamriko Chokhonelidze (singer, TV presenter)</t>
+  </si>
+  <si>
+    <t>European Parliament</t>
+  </si>
+  <si>
+    <t>Ilham Aliyev (President of Azerbaijan)</t>
+  </si>
+  <si>
+    <t>State Security Service (SSS)</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Tea Tsulukiani</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>Ez Gaber (photographer)</t>
+  </si>
+  <si>
+    <t>Ahmed al-Sharaa (President of Syria)</t>
+  </si>
+  <si>
+    <t>National Endowment for Democracy (NED)</t>
+  </si>
+  <si>
+    <t>Viktor Orban (Prime Minister of Hungary)</t>
+  </si>
+  <si>
+    <t>Grisha Oniani</t>
+  </si>
+  <si>
+    <t>David Doiashvili (director)</t>
+  </si>
+  <si>
+    <t>Vasil Ivanov-Chikovani (journalist)</t>
+  </si>
+  <si>
+    <t>Family members of protest participants</t>
+  </si>
+  <si>
+    <t>Eka Kvesitadze</t>
+  </si>
+  <si>
+    <t>United States Agency for International Development (USAID)</t>
+  </si>
+  <si>
+    <t>Eka Gigauri</t>
+  </si>
+  <si>
+    <t>Giorgi Gabunia</t>
+  </si>
+  <si>
+    <t>Zaza Okuashvili (businessman)</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Samantha Power (USAID Administrator)</t>
+  </si>
+  <si>
+    <t>Paata Manjgaladze ("Strategy Builder")</t>
+  </si>
+  <si>
+    <t>Peter Szijjarto (Hungarian Foreign Minister)</t>
+  </si>
+  <si>
+    <t>Official Washington</t>
+  </si>
+  <si>
+    <t>David McAllister (Chair of the European Parliament's Foreign Affairs Committee)</t>
+  </si>
+  <si>
+    <t>People power</t>
+  </si>
+  <si>
+    <t>Journalist/cameraman for opposition media</t>
+  </si>
+  <si>
+    <t>Salome Samadashvili</t>
+  </si>
+  <si>
+    <t>Laura Thornton (Research Fellow, McCain Institute)</t>
+  </si>
+  <si>
+    <t>Xi Jinping (General Secretary of the Communist Party of China)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Dominik Tarczynski (Polish Member of the European Parliament)</t>
+  </si>
+  <si>
+    <t>Family members of law enforcement officers, special forces, and police</t>
+  </si>
+  <si>
+    <t>Thierry Marian (Member of the European Parliament)</t>
+  </si>
+  <si>
+    <t>Kimberly Lowe</t>
+  </si>
+  <si>
+    <t>Kakha Kaladze (Mayor of Tbilisi)</t>
+  </si>
+  <si>
+    <t>Alice Weidel (leader of the AfD)</t>
+  </si>
+  <si>
+    <t>Levan Gogichaishvili (member of Gakharia's party)</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Marco Rubio (US Secretary of State)</t>
+  </si>
+  <si>
+    <t>Nino Lomjaria (Former Public Defender)</t>
+  </si>
+  <si>
+    <t>Vladimir Kara-Murza (former Russian journalist)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Western media</t>
+  </si>
+  <si>
+    <t>Stephen Dowd (Minister of State for FCDO, United Kingdom)</t>
+  </si>
+  <si>
+    <t>Non-governmental organizations/public organizations operating in Georgia</t>
+  </si>
+  <si>
+    <t>Alain Berset (Secretary General of the Council of Europe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serbia</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Michael Carpenter</t>
+  </si>
+  <si>
+    <t>OSCE/ODIHR</t>
+  </si>
+  <si>
+    <t>Armenian community of Georgia</t>
+  </si>
+  <si>
+    <t>Hudson Institute</t>
+  </si>
+  <si>
+    <t>Tamar Chergoleishvili</t>
+  </si>
+  <si>
+    <t>Giga Bokeria</t>
+  </si>
+  <si>
+    <t>UN / Guterres</t>
+  </si>
+  <si>
+    <t>Holy Father Gabriel (Urgebadze)</t>
+  </si>
+  <si>
+    <t>Ana Dolidze (opposition politician)</t>
+  </si>
+  <si>
+    <t>US Congress</t>
+  </si>
+  <si>
+    <t>Ilia II, Patriarch of Georgia</t>
+  </si>
+  <si>
+    <t>Mamuka Khazaradze</t>
+  </si>
+  <si>
+    <t>Parliamentary Assembly of the Council of Europe</t>
+  </si>
+  <si>
+    <t>Mikhail Roth</t>
+  </si>
+  <si>
+    <t>Lasha Talakhadze (Member of Parliament, athlete)</t>
+  </si>
+  <si>
+    <t>Giga Makarashvili (activist)</t>
+  </si>
+  <si>
+    <t>Zviad Kharatishvili (Khareba)</t>
+  </si>
+  <si>
+    <t>Miller Lagazouri</t>
+  </si>
+  <si>
+    <t>Levan Sanikidze (member of the National Movement)</t>
+  </si>
+  <si>
+    <t>Joe Wilson (US Congressman)</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Tamar Kintsurashvili</t>
+  </si>
+  <si>
+    <t>Ashot Smbatyan (Ambassador of Armenia to Georgia)</t>
+  </si>
+  <si>
+    <t>Kaia Kallas (High Representative of the European Union)</t>
+  </si>
+  <si>
+    <t>Kestutis Burdis (Minister of Foreign Affairs of Lithuania)</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Nata Peradze (civil activist)</t>
+  </si>
+  <si>
+    <t>Robert Fico (Prime Minister of Slovakia)</t>
+  </si>
+  <si>
+    <t>Levan Gigineishvili (philosopher)</t>
+  </si>
+  <si>
+    <t>David Kezerashvili</t>
+  </si>
+  <si>
+    <t>Achi Arveladze (former football player)</t>
+  </si>
+  <si>
+    <t>Pedro Sanchez (Prime Minister of Spain)</t>
+  </si>
+  <si>
+    <t>French people</t>
+  </si>
+  <si>
+    <t>Donald Trump Jr.</t>
+  </si>
+  <si>
+    <t>Ukrainian government (except Zelensky)</t>
+  </si>
+  <si>
+    <t>Baiba Braže (Minister of Foreign Affairs of Latvia)</t>
+  </si>
+  <si>
+    <t>Archpriest Andria Jagmaidze</t>
+  </si>
+  <si>
+    <t>Levan Khurtsia (actor)</t>
+  </si>
+  <si>
+    <t>Robert Sturua (director)</t>
+  </si>
+  <si>
+    <t>Anti-government cultural figure</t>
+  </si>
+  <si>
+    <t>Gocha Tkeshelashvili (host)</t>
+  </si>
+  <si>
+    <t>Onise Tskhadadze (humorist)</t>
+  </si>
+  <si>
+    <t>BRICS Alliance</t>
+  </si>
+  <si>
+    <t>World Bank</t>
+  </si>
+  <si>
+    <t>Ruska Makashvili (actress)</t>
+  </si>
+  <si>
+    <t>Tbilisi City Hall</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Aleksandre Darakhvelidze (Deputy Minister of Internal Affairs)</t>
+  </si>
+  <si>
+    <t>Michael O'Flaherty (Council of Europe Commissioner for Human Rights)</t>
+  </si>
+  <si>
+    <t>European /experts (non-governmental organizations, not representatives of the political sphere)</t>
+  </si>
+  <si>
+    <t>Baia Pataraia (activist)</t>
+  </si>
+  <si>
+    <t>Grigol Gegelia</t>
+  </si>
+  <si>
+    <t>Gigi Ugulava</t>
+  </si>
+  <si>
+    <t>Zurab Japaridze</t>
+  </si>
+  <si>
+    <t>Peter Fischer (German Ambassador to Georgia)</t>
+  </si>
+  <si>
+    <t>Olaf Scholz</t>
+  </si>
+  <si>
+    <t>Georgian Westerners/Supporters of European Integration</t>
+  </si>
+  <si>
+    <t>Maria Zakharova (Russian Foreign Ministry official)</t>
+  </si>
+  <si>
+    <t>Russian soldiers</t>
+  </si>
+  <si>
+    <t>Ukrainian military</t>
+  </si>
+  <si>
+    <t>Badri Japaridze</t>
+  </si>
+  <si>
+    <t>Bashar al-Assad (former President of Syria)</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Thierry Breton (European Commissioner)</t>
+  </si>
+  <si>
+    <t>Zura Makharadze (leader of Alt-Info)</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Zaza Burchuladze (writer)</t>
+  </si>
+  <si>
+    <t>Merab Metreveli</t>
+  </si>
+  <si>
+    <t>Geno Petriashvili</t>
+  </si>
+  <si>
+    <t>Ursula von der Leyen</t>
+  </si>
+  <si>
+    <t>Danilo Della Valle (Member of the European Parliament)</t>
+  </si>
+  <si>
+    <t>US Embassy in Georgia</t>
+  </si>
+  <si>
+    <t>Azerbaijani-language media operating in Georgia</t>
+  </si>
+  <si>
+    <t>Matteo Salvini</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Ethnic Azerbaijani population of Georgia</t>
+  </si>
+  <si>
+    <t>Mariam Samkharadze (civic activist)</t>
+  </si>
+  <si>
+    <t>Lasha Bekauri</t>
+  </si>
+  <si>
+    <t>Demur Giorkhelidze (expert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eduard Shevardnadze</t>
+  </si>
+  <si>
+    <t>Gia Bughadze (artist)</t>
+  </si>
+  <si>
+    <t>Giorgi Volski (First Deputy Speaker of the Parliament)</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Tina Khidasheli</t>
+  </si>
+  <si>
+    <t>Supporter of the National Movement</t>
+  </si>
+  <si>
+    <t>Malkhaz Songulashvili (representative of the Baptist Church)</t>
+  </si>
+  <si>
+    <t>European Investment Bank</t>
+  </si>
+  <si>
+    <t>European Bank for Reconstruction and Development</t>
+  </si>
+  <si>
+    <t>Sergey Gavrilov</t>
+  </si>
+  <si>
+    <t>PSP Pharmacy</t>
+  </si>
+  <si>
+    <t>Foreign donors</t>
+  </si>
+  <si>
+    <t>Ukrainian War</t>
+  </si>
+  <si>
+    <t>LGBTQ+ / Homophobia</t>
+  </si>
+  <si>
+    <t>Gender discrimination</t>
+  </si>
+  <si>
+    <t>Religion / Church</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Georgian National Identity / Traditions</t>
+  </si>
+  <si>
+    <t>Culture / Art</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Environmental protection / climate change</t>
+  </si>
+  <si>
+    <t>Justice/Court</t>
+  </si>
+  <si>
+    <t>European integration</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Emigration</t>
+  </si>
+  <si>
+    <t>Pro-Western/anti-Russian protest</t>
+  </si>
+  <si>
+    <t>Agents Law / Russian Law / Law on Transparency of Foreign Influence</t>
+  </si>
+  <si>
+    <t>Global War Party / Deep State</t>
+  </si>
+  <si>
+    <t>Georgian security / war</t>
+  </si>
+  <si>
+    <t>Georgia's relations with Western institutions/organizations</t>
+  </si>
+  <si>
+    <t>Elections</t>
+  </si>
+  <si>
+    <t>Criticism/discrediting of Western actors (Europe/USA)</t>
+  </si>
+  <si>
+    <t>Georgian domestic politics/political parties</t>
+  </si>
+  <si>
+    <t>Praise for Bidzina Ivanishvili (philanthropist, father of the nation, savior of Georgia)</t>
+  </si>
+  <si>
+    <t>Western partners of the Dream government</t>
+  </si>
+  <si>
+    <t>Discrediting Volodymyr Zelensky/Ukraine</t>
+  </si>
+  <si>
+    <t>Business/Private Sector</t>
+  </si>
+  <si>
+    <t>Discrediting the opposition</t>
+  </si>
+  <si>
+    <t>The new US government</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>China-Georgia relations</t>
+  </si>
+  <si>
+    <t>Bidzina Ivanishvili's international recognition</t>
+  </si>
+  <si>
+    <t>United Arab Emirates investment in Georgia</t>
+  </si>
+  <si>
+    <t>Funding received from Western organizations</t>
+  </si>
+  <si>
+    <t>Russia-Georgia relations</t>
+  </si>
+  <si>
+    <t>Occupied territories</t>
+  </si>
+  <si>
+    <t>Sanctions against Russia</t>
+  </si>
+  <si>
+    <t>Sanctions against the Georgian government</t>
+  </si>
+  <si>
+    <t>Georgia's foreign relations with the East (excluding China)</t>
+  </si>
+  <si>
+    <t>Public Sector/Hospital Services</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Pro-government civil movements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US-China relations</t>
+  </si>
+  <si>
+    <t>USAID Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International relations of the opposition</t>
+  </si>
+  <si>
+    <t>Unrest in Syria</t>
+  </si>
+  <si>
+    <t>Elections in European/Western countries</t>
+  </si>
+  <si>
+    <t>Social networks</t>
+  </si>
+  <si>
+    <t>European Union (European Union as an organization, not as Europe)</t>
+  </si>
+  <si>
+    <t>The old US administration</t>
+  </si>
+  <si>
+    <t>US foreign relations</t>
+  </si>
+  <si>
+    <t>Ukraine-Georgia relations</t>
+  </si>
+  <si>
+    <t>Relations with Armenia</t>
+  </si>
+  <si>
+    <t>Territorial integrity of Georgia</t>
+  </si>
+  <si>
+    <t>Giorgoba</t>
+  </si>
+  <si>
+    <t>Barbaroba</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>event_id</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +4632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3029,6 +4706,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9661,2122 +11341,2914 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D178334C-5EFE-4F48-9EA8-7AA58E735530}">
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>512</v>
       </c>
       <c r="B1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="218.6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C49" s="43" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C86" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C89" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C117" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C123" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C129" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C130" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C131" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C135" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C137" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C138" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C140" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C141" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C142" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C143" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C146" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C147" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C148" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C151" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C155" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C156" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C157" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C158" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C159" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C160" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C161" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C162" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C163" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C164" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C165" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C166" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C167" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C169" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C170" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C171" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C172" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C173" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C174" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C175" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C176" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C177" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C178" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C179" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C180" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C181" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C185" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C186" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C187" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C188" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C189" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C190" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C191" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C192" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C193" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C194" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C195" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C196" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C197" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C198" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C199" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C200" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C201" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C202" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C203" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C204" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C205" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C206" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C207" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C208" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C209" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C210" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C211" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C212" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C213" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C214" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C215" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C216" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C217" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C218" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C219" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C220" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C221" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C222" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C223" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C224" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C225" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C226" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C227" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C228" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C229" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C230" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C231" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C232" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C233" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C234" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C235" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C236" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C237" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C238" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C239" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C240" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C241" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C242" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C243" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C244" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C245" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C246" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C247" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C248" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C249" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C250" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C251" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C252" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C253" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C254" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C255" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C256" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C257" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C258" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C259" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C260" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C261" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C262" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C263" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>511</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
@@ -11786,1935 +14258,2658 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7842E875-85A3-488D-A41D-61860547D9C1}">
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>806</v>
       </c>
       <c r="B1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C86" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C89" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C112" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C114" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C116" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C117" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C119" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C123" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C127" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C129" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C130" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C131" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C132" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C133" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C135" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C137" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C138" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C139" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C140" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C141" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C142" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C143" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C144" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C145" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C146" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C147" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C148" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C149" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C150" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C151" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C152" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C155" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C156" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C157" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C158" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C159" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C160" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C161" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C162" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C163" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C164" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C165" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C166" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C167" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C168" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C169" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C170" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C171" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C172" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C173" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C174" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C175" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C176" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C177" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C178" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C179" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C180" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C181" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C182" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C183" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C184" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C185" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C186" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C187" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C188" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C189" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C190" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C191" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C192" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C193" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C194" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C195" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C196" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C197" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C198" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C199" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C200" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C201" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C202" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C203" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C204" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C205" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C206" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C207" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C208" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C209" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C210" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C211" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C212" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C213" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C214" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C215" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C216" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C217" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C218" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C219" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C220" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C221" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C222" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C223" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C224" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C225" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C226" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C227" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C228" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C229" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C230" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C231" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C232" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C233" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C234" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C235" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C236" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C237" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C238" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C239" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C240" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>805</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -13724,436 +16919,595 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF93574E-3500-41B6-8E4D-7ABAD002D051}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>566</v>
       </c>
       <c r="B1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" s="36" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="35">
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" s="36" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" s="36" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="35">
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="36" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" s="36" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="35">
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" s="36" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" s="36" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="35">
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" s="36" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="35">
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" s="36" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="35">
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" s="36" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="35">
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" s="36" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" s="36" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" s="36" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="35">
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" s="36" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="35">
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" s="36" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="35">
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" s="36" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="35">
         <v>17</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" s="36" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="35">
         <v>18</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" s="36" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="35">
         <v>19</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" s="36" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="35">
         <v>20</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21" s="36" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="37">
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22" s="38" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="37">
         <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23" s="39" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="37">
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" s="38" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="37">
         <v>24</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" s="38" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="37">
         <v>25</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26" s="38" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="37">
         <v>26</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27" s="38" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="37">
         <v>27</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28" s="38" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="37">
         <v>28</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" s="38" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="37">
         <v>29</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30" s="38" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="37">
         <v>30</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31" s="38" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="37">
         <v>31</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32" s="40" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="37">
         <v>32</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33" s="38" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="37">
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34" s="38" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="37">
         <v>34</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35" s="38" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="37">
         <v>35</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C36" s="38" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="37">
         <v>36</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37" s="38" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="37">
         <v>37</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38" s="38" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="37">
         <v>38</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39" s="38" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="37">
         <v>39</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40" s="38" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="37">
         <v>40</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41" s="38" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="37">
         <v>41</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42" s="38" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="37">
         <v>42</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43" s="38" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="37">
         <v>43</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44" s="38" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="37">
         <v>44</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C45" s="38" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="37">
         <v>45</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C46" s="38" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <v>46</v>
       </c>
       <c r="B47" s="42" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C47" s="42" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="41">
         <v>47</v>
       </c>
       <c r="B48" s="42" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C48" s="42" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="41">
         <v>48</v>
       </c>
       <c r="B49" s="42" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C49" s="42" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="41">
         <v>49</v>
       </c>
       <c r="B50" s="42" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C50" s="42" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="41">
         <v>50</v>
       </c>
       <c r="B51" s="42" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C51" s="42" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="41">
         <v>51</v>
       </c>
       <c r="B52" s="42" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52" s="42" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="41">
         <v>52</v>
       </c>
       <c r="B53" s="42" t="s">
         <v>565</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -14163,55 +17517,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B47F2D2-8379-4407-B6AE-B9221BBD032B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1" t="s">
         <v>808</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31">
+      <c r="D1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
         <v>45619</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31">
+      <c r="D2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
         <v>45643</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31">
+      <c r="D3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31">
         <v>45658</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="31">
+      <c r="D4" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
         <v>45664</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>813</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1442</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/dashboard_data.xlsx
+++ b/src/data/dashboard_data.xlsx
@@ -9021,10 +9021,10 @@
     <t xml:space="preserve">According to Russia, Georgian Dream used the war issue in its campaign: “If you don’t vote for us, they’ll drag us into war”</t>
   </si>
   <si>
-    <t xml:space="preserve">ივანიშვილის აზრით 2008 წლის ომი სააკაშვილმა გამოიწვია და არა რუსეთმა</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivanishvili believes the 2008 war was caused by Saakashvili, not Russia</t>
+    <t xml:space="preserve">2008 წლის ომი სააკაშვილმა გამოიწვია / დაიწყო და არა რუსეთმა</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2008 war was caused/started by Saakashvili, not Russia</t>
   </si>
   <si>
     <t xml:space="preserve">რუსეთი საქართველოსგან ოკუპირებული ტერიტორიების მიმართ ძალის არგამოყენების შეთანხმებაზე ხელმოწერას ითხოვს</t>
@@ -9129,7 +9129,7 @@
     <t xml:space="preserve">Trump’s administration significantly reduced USAID’s foreign aid contracts</t>
   </si>
   <si>
-    <t xml:space="preserve">საქართველოს ტერიტორიების 20% ოკუპირებულია, რადგან სააკაშვილი დასავლეთის წინაშე რუსეთთან მებრძოლ გმირად წარმოჩენა სურდა</t>
+    <t xml:space="preserve">საქართველოს ტერიტორიების 20% ოკუპირებულია, რადგან სააკაშვილს დასავლეთის წინაშე რუსეთთან მებრძოლ გმირად წარმოჩენა სურდა</t>
   </si>
   <si>
     <t xml:space="preserve">20% of Georgia is occupied because Saakashvili wanted to portray himself to the West as a hero fighting Russia</t>
@@ -11817,7 +11817,7 @@
     <t xml:space="preserve">Georgian security / war</t>
   </si>
   <si>
-    <t xml:space="preserve">საქართველოს ურთიერთობა დასავლურ /ინსტიტუტებთან/ორგანიზაციებთან</t>
+    <t xml:space="preserve">საქართველოს ურთიერთობა დასავლურ ინსტიტუტებთან/ორგანიზაციებთან</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia's relations with Western institutions/organizations</t>
